--- a/data/pca/factorExposure/factorExposure_2015-01-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-01-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01073279461452582</v>
+        <v>0.00900333391150171</v>
       </c>
       <c r="C2">
-        <v>-0.03610885715865445</v>
+        <v>0.05144647496322708</v>
       </c>
       <c r="D2">
-        <v>-0.1129558815785952</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02246609277786456</v>
+      </c>
+      <c r="E2">
+        <v>0.1161790037032244</v>
+      </c>
+      <c r="F2">
+        <v>-0.1328572179537137</v>
+      </c>
+      <c r="G2">
+        <v>0.06927743006330878</v>
+      </c>
+      <c r="H2">
+        <v>0.04434399343659681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03557033362853881</v>
+        <v>0.01808007205739152</v>
       </c>
       <c r="C4">
-        <v>-0.1086965703369167</v>
+        <v>0.1327142469334215</v>
       </c>
       <c r="D4">
-        <v>-0.06708335292671856</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.004784760374238808</v>
+      </c>
+      <c r="E4">
+        <v>0.08648119220832033</v>
+      </c>
+      <c r="F4">
+        <v>-0.1176172906578476</v>
+      </c>
+      <c r="G4">
+        <v>-0.06414949122172645</v>
+      </c>
+      <c r="H4">
+        <v>0.02901759694319143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02442362930731672</v>
+        <v>0.03285911301738682</v>
       </c>
       <c r="C6">
-        <v>-0.03528047723394161</v>
+        <v>0.04835902616824115</v>
       </c>
       <c r="D6">
-        <v>-0.07317414519978613</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.003310213917217544</v>
+      </c>
+      <c r="E6">
+        <v>0.1092714394143112</v>
+      </c>
+      <c r="F6">
+        <v>-0.07263336775853582</v>
+      </c>
+      <c r="G6">
+        <v>0.005318088874575523</v>
+      </c>
+      <c r="H6">
+        <v>-0.04658089914029869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.009126943356990535</v>
+        <v>0.005432166092227896</v>
       </c>
       <c r="C7">
-        <v>-0.03611911638737048</v>
+        <v>0.05094284070280519</v>
       </c>
       <c r="D7">
-        <v>-0.0652041891184434</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.007945050073091282</v>
+      </c>
+      <c r="E7">
+        <v>0.09070421820652021</v>
+      </c>
+      <c r="F7">
+        <v>-0.02246997267969303</v>
+      </c>
+      <c r="G7">
+        <v>-0.018889897713379</v>
+      </c>
+      <c r="H7">
+        <v>-0.009062652731033502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0006149553974152497</v>
+        <v>-0.004723610786949999</v>
       </c>
       <c r="C8">
-        <v>-0.04245358411959672</v>
+        <v>0.05116613974515908</v>
       </c>
       <c r="D8">
-        <v>-0.06323492995602598</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.01645357984460193</v>
+      </c>
+      <c r="E8">
+        <v>0.06282419852412996</v>
+      </c>
+      <c r="F8">
+        <v>-0.07666758892340275</v>
+      </c>
+      <c r="G8">
+        <v>-0.01085415839430957</v>
+      </c>
+      <c r="H8">
+        <v>0.06545092984811016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02080662898657138</v>
+        <v>0.01087152917018194</v>
       </c>
       <c r="C9">
-        <v>-0.09237695840290486</v>
+        <v>0.1076478263309076</v>
       </c>
       <c r="D9">
-        <v>-0.06805475395632092</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.005283194877618806</v>
+      </c>
+      <c r="E9">
+        <v>0.07507633915860883</v>
+      </c>
+      <c r="F9">
+        <v>-0.08232573949884708</v>
+      </c>
+      <c r="G9">
+        <v>-0.024239236754435</v>
+      </c>
+      <c r="H9">
+        <v>-0.009369532087851186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2237236548477178</v>
+        <v>0.2437030475676591</v>
       </c>
       <c r="C10">
-        <v>0.1082704872939433</v>
+        <v>-0.08175303963075188</v>
       </c>
       <c r="D10">
-        <v>0.03836615750057568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.002958724968325692</v>
+      </c>
+      <c r="E10">
+        <v>-0.0252457481147956</v>
+      </c>
+      <c r="F10">
+        <v>-0.01782709312461033</v>
+      </c>
+      <c r="G10">
+        <v>-0.01259329213581443</v>
+      </c>
+      <c r="H10">
+        <v>-0.01623507356761866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.005295432446325555</v>
+        <v>0.009809158890563231</v>
       </c>
       <c r="C11">
-        <v>-0.04513680997668594</v>
+        <v>0.06465460512142029</v>
       </c>
       <c r="D11">
-        <v>-0.04542267868633022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.00517233350615957</v>
+      </c>
+      <c r="E11">
+        <v>0.05792771602545573</v>
+      </c>
+      <c r="F11">
+        <v>-0.0130526453311193</v>
+      </c>
+      <c r="G11">
+        <v>-0.01465814387775912</v>
+      </c>
+      <c r="H11">
+        <v>-0.0102389656811989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.005432094396714391</v>
+        <v>0.01016661775510047</v>
       </c>
       <c r="C12">
-        <v>-0.04674223892144549</v>
+        <v>0.05453433719729323</v>
       </c>
       <c r="D12">
-        <v>-0.0459866796875767</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0010788784989429</v>
+      </c>
+      <c r="E12">
+        <v>0.05107354251951474</v>
+      </c>
+      <c r="F12">
+        <v>-0.01054874304687026</v>
+      </c>
+      <c r="G12">
+        <v>0.01487122490768891</v>
+      </c>
+      <c r="H12">
+        <v>-0.02566774936836521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01730839886537196</v>
+        <v>0.005876514761434103</v>
       </c>
       <c r="C13">
-        <v>-0.05840662639361895</v>
+        <v>0.08645198736507573</v>
       </c>
       <c r="D13">
-        <v>-0.115016271934133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03616437655530583</v>
+      </c>
+      <c r="E13">
+        <v>0.1280925425941027</v>
+      </c>
+      <c r="F13">
+        <v>-0.06149914014682065</v>
+      </c>
+      <c r="G13">
+        <v>0.09418282818907822</v>
+      </c>
+      <c r="H13">
+        <v>-0.0278968434865825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01116275616753144</v>
+        <v>0.002180038697115816</v>
       </c>
       <c r="C14">
-        <v>-0.02179947978755586</v>
+        <v>0.04402791372969695</v>
       </c>
       <c r="D14">
-        <v>-0.05473658158551707</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01975900819769765</v>
+      </c>
+      <c r="E14">
+        <v>0.1027412584725732</v>
+      </c>
+      <c r="F14">
+        <v>-0.05213189545408512</v>
+      </c>
+      <c r="G14">
+        <v>0.03470982655617843</v>
+      </c>
+      <c r="H14">
+        <v>-0.03682453156900897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003203890601642596</v>
+        <v>-0.0052114876893449</v>
       </c>
       <c r="C15">
-        <v>-0.0186540098305388</v>
+        <v>0.03956209651648545</v>
       </c>
       <c r="D15">
-        <v>-0.05663103425285174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006659542556112944</v>
+      </c>
+      <c r="E15">
+        <v>0.07226588550563817</v>
+      </c>
+      <c r="F15">
+        <v>-0.03076524616123827</v>
+      </c>
+      <c r="G15">
+        <v>0.0003577926100230403</v>
+      </c>
+      <c r="H15">
+        <v>0.01118153168938983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006362020123142904</v>
+        <v>0.00940700921025572</v>
       </c>
       <c r="C16">
-        <v>-0.04255504457186802</v>
+        <v>0.05606344586891292</v>
       </c>
       <c r="D16">
-        <v>-0.04150336482586769</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.003656312526387349</v>
+      </c>
+      <c r="E16">
+        <v>0.05126667627234112</v>
+      </c>
+      <c r="F16">
+        <v>-0.006894879581627204</v>
+      </c>
+      <c r="G16">
+        <v>-0.01043471314850974</v>
+      </c>
+      <c r="H16">
+        <v>-0.02774725040726925</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.002867087135000631</v>
+        <v>0.0004257881031434473</v>
       </c>
       <c r="C19">
-        <v>-0.02719243918659172</v>
+        <v>0.01990085036547512</v>
       </c>
       <c r="D19">
-        <v>-0.03786271874976634</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.007135412246409072</v>
+      </c>
+      <c r="E19">
+        <v>0.01146649974712455</v>
+      </c>
+      <c r="F19">
+        <v>0.004742300744676979</v>
+      </c>
+      <c r="G19">
+        <v>0.02524838595709374</v>
+      </c>
+      <c r="H19">
+        <v>0.01890706045182006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002549547351594288</v>
+        <v>0.003145262707195881</v>
       </c>
       <c r="C20">
-        <v>-0.03781813708562188</v>
+        <v>0.0583695031026373</v>
       </c>
       <c r="D20">
-        <v>-0.04926792006066073</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.004105476081541957</v>
+      </c>
+      <c r="E20">
+        <v>0.07399715861650748</v>
+      </c>
+      <c r="F20">
+        <v>-0.02731836413252086</v>
+      </c>
+      <c r="G20">
+        <v>-0.02243869456391477</v>
+      </c>
+      <c r="H20">
+        <v>-0.01953196612579479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005174255908342531</v>
+        <v>0.003449194433807805</v>
       </c>
       <c r="C21">
-        <v>-0.06144559415790649</v>
+        <v>0.07172931223433884</v>
       </c>
       <c r="D21">
-        <v>-0.07513918900974004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.00364853900061104</v>
+      </c>
+      <c r="E21">
+        <v>0.08120731718498798</v>
+      </c>
+      <c r="F21">
+        <v>-0.09176643571128451</v>
+      </c>
+      <c r="G21">
+        <v>0.1105016752850098</v>
+      </c>
+      <c r="H21">
+        <v>-0.0198937342572786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.002932640153218173</v>
+        <v>-0.01078404011490183</v>
       </c>
       <c r="C22">
-        <v>-0.0765027309610998</v>
+        <v>0.1019697778436894</v>
       </c>
       <c r="D22">
-        <v>-0.1861679972114479</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.07808732601640822</v>
+      </c>
+      <c r="E22">
+        <v>0.2114361488748448</v>
+      </c>
+      <c r="F22">
+        <v>-0.2205679056385109</v>
+      </c>
+      <c r="G22">
+        <v>-0.07038073546757528</v>
+      </c>
+      <c r="H22">
+        <v>0.2606867725264103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.003100560321498119</v>
+        <v>-0.007732721691181303</v>
       </c>
       <c r="C23">
-        <v>-0.07759913373385596</v>
+        <v>0.1046750749588861</v>
       </c>
       <c r="D23">
-        <v>-0.1852537547041722</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.08115581694741343</v>
+      </c>
+      <c r="E23">
+        <v>0.2102028866982728</v>
+      </c>
+      <c r="F23">
+        <v>-0.2192338677944234</v>
+      </c>
+      <c r="G23">
+        <v>-0.06602426678350343</v>
+      </c>
+      <c r="H23">
+        <v>0.2508511250181999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.00705492502610292</v>
+        <v>0.01016035178534754</v>
       </c>
       <c r="C24">
-        <v>-0.06345122820622651</v>
+        <v>0.07202469864537249</v>
       </c>
       <c r="D24">
-        <v>-0.05119385813266928</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.01310728902523044</v>
+      </c>
+      <c r="E24">
+        <v>0.05849516786827853</v>
+      </c>
+      <c r="F24">
+        <v>-0.01135015812965133</v>
+      </c>
+      <c r="G24">
+        <v>-0.002072620449126219</v>
+      </c>
+      <c r="H24">
+        <v>-0.01256294835352551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.008296344819130285</v>
+        <v>0.01401445191103519</v>
       </c>
       <c r="C25">
-        <v>-0.05671384159596014</v>
+        <v>0.06690620109820891</v>
       </c>
       <c r="D25">
-        <v>-0.03955605198050657</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-2.777397343370889e-06</v>
+      </c>
+      <c r="E25">
+        <v>0.0449523197052859</v>
+      </c>
+      <c r="F25">
+        <v>-0.01247713500830008</v>
+      </c>
+      <c r="G25">
+        <v>-0.01073148155969457</v>
+      </c>
+      <c r="H25">
+        <v>-0.01552358474221517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007461729810074251</v>
+        <v>0.01682481073082726</v>
       </c>
       <c r="C26">
-        <v>-0.02776988857060479</v>
+        <v>0.04516261021604015</v>
       </c>
       <c r="D26">
-        <v>-0.04491834751657316</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02749006921780314</v>
+      </c>
+      <c r="E26">
+        <v>0.064505631835455</v>
+      </c>
+      <c r="F26">
+        <v>-0.0529573091504893</v>
+      </c>
+      <c r="G26">
+        <v>0.01424362086733321</v>
+      </c>
+      <c r="H26">
+        <v>0.008660530781972122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3056702512861401</v>
+        <v>0.3148659889378853</v>
       </c>
       <c r="C28">
-        <v>0.1109532848633342</v>
+        <v>-0.08914841166529396</v>
       </c>
       <c r="D28">
-        <v>0.02653062903684076</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01561441012618869</v>
+      </c>
+      <c r="E28">
+        <v>-0.05014199498795655</v>
+      </c>
+      <c r="F28">
+        <v>-0.05416652771179907</v>
+      </c>
+      <c r="G28">
+        <v>-0.002407390282902266</v>
+      </c>
+      <c r="H28">
+        <v>0.07603272547651828</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>1.444056472213333e-05</v>
+        <v>0.002904182652212468</v>
       </c>
       <c r="C29">
-        <v>-0.02884031847301592</v>
+        <v>0.05238472128080984</v>
       </c>
       <c r="D29">
-        <v>-0.06255910834624553</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01564700500266954</v>
+      </c>
+      <c r="E29">
+        <v>0.1156050532680862</v>
+      </c>
+      <c r="F29">
+        <v>-0.05670588860196667</v>
+      </c>
+      <c r="G29">
+        <v>0.03784017042340383</v>
+      </c>
+      <c r="H29">
+        <v>-0.06231641901035966</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01719979121149337</v>
+        <v>0.01644312899410836</v>
       </c>
       <c r="C30">
-        <v>-0.09495640524437544</v>
+        <v>0.1158371581388362</v>
       </c>
       <c r="D30">
-        <v>-0.1306859901948608</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.002765322850183659</v>
+      </c>
+      <c r="E30">
+        <v>0.142135761691847</v>
+      </c>
+      <c r="F30">
+        <v>-0.05320145057585005</v>
+      </c>
+      <c r="G30">
+        <v>-0.02589190168247125</v>
+      </c>
+      <c r="H30">
+        <v>-0.001047899759378063</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.01377787744198515</v>
+        <v>0.008707388823135227</v>
       </c>
       <c r="C31">
-        <v>-0.09874125421006713</v>
+        <v>0.102243844611715</v>
       </c>
       <c r="D31">
-        <v>-0.03298059378773888</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0102173475846524</v>
+      </c>
+      <c r="E31">
+        <v>0.01957971212737684</v>
+      </c>
+      <c r="F31">
+        <v>-0.004263346260073571</v>
+      </c>
+      <c r="G31">
+        <v>0.01142060350055035</v>
+      </c>
+      <c r="H31">
+        <v>0.02557581448619425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0126984842737966</v>
+        <v>0.01348556719266138</v>
       </c>
       <c r="C32">
-        <v>-0.05641406169055224</v>
+        <v>0.06475947325173186</v>
       </c>
       <c r="D32">
-        <v>-0.07784275840476275</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04427459648534535</v>
+      </c>
+      <c r="E32">
+        <v>0.05430789559583045</v>
+      </c>
+      <c r="F32">
+        <v>-0.08327111774812185</v>
+      </c>
+      <c r="G32">
+        <v>0.03277468525060768</v>
+      </c>
+      <c r="H32">
+        <v>0.0009397534515186524</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.000413060206596635</v>
+        <v>0.006974797009477425</v>
       </c>
       <c r="C33">
-        <v>-0.05914905575877935</v>
+        <v>0.08129879701023335</v>
       </c>
       <c r="D33">
-        <v>-0.07533174718219585</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.008030546309634174</v>
+      </c>
+      <c r="E33">
+        <v>0.09356915654727636</v>
+      </c>
+      <c r="F33">
+        <v>-0.04529886980887253</v>
+      </c>
+      <c r="G33">
+        <v>0.004516352101832564</v>
+      </c>
+      <c r="H33">
+        <v>-0.009632138144622864</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.004380355597291936</v>
+        <v>0.009846090888893239</v>
       </c>
       <c r="C34">
-        <v>-0.06136230854994918</v>
+        <v>0.06260868503716908</v>
       </c>
       <c r="D34">
-        <v>-0.05973393518500776</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.008202277565018321</v>
+      </c>
+      <c r="E34">
+        <v>0.04936983598637023</v>
+      </c>
+      <c r="F34">
+        <v>0.01626660814439886</v>
+      </c>
+      <c r="G34">
+        <v>0.01562785000048252</v>
+      </c>
+      <c r="H34">
+        <v>-0.005776923616631142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0009757762853693421</v>
+        <v>0.00431642826517436</v>
       </c>
       <c r="C35">
-        <v>-0.001219486383203367</v>
+        <v>0.02097934221365551</v>
       </c>
       <c r="D35">
-        <v>-0.0053208766390322</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.003202227438130352</v>
+      </c>
+      <c r="E35">
+        <v>0.03559467179078863</v>
+      </c>
+      <c r="F35">
+        <v>-0.03113294585939532</v>
+      </c>
+      <c r="G35">
+        <v>0.001537324061407057</v>
+      </c>
+      <c r="H35">
+        <v>-0.02883076402429406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005440229496028356</v>
+        <v>0.010322355143267</v>
       </c>
       <c r="C36">
-        <v>-0.0277364231863966</v>
+        <v>0.03836373971341282</v>
       </c>
       <c r="D36">
-        <v>-0.03733276912846835</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01454820235130184</v>
+      </c>
+      <c r="E36">
+        <v>0.0585674450741771</v>
+      </c>
+      <c r="F36">
+        <v>-0.05055900362691008</v>
+      </c>
+      <c r="G36">
+        <v>0.004879169136220621</v>
+      </c>
+      <c r="H36">
+        <v>-0.0007498925729710994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004760089567483794</v>
+        <v>0.006675576588504094</v>
       </c>
       <c r="C38">
-        <v>-0.02231033011989778</v>
+        <v>0.04164249359118574</v>
       </c>
       <c r="D38">
-        <v>-0.06704462566235213</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.008545263056836611</v>
+      </c>
+      <c r="E38">
+        <v>0.07611659902353178</v>
+      </c>
+      <c r="F38">
+        <v>-0.01883887018288904</v>
+      </c>
+      <c r="G38">
+        <v>-0.01811155220847675</v>
+      </c>
+      <c r="H38">
+        <v>0.05059752574398246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006516967483731938</v>
+        <v>0.00705752369474059</v>
       </c>
       <c r="C39">
-        <v>-0.07143499669127283</v>
+        <v>0.09809252899498942</v>
       </c>
       <c r="D39">
-        <v>-0.09554594622847533</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.02163540221368124</v>
+      </c>
+      <c r="E39">
+        <v>0.1107448616356334</v>
+      </c>
+      <c r="F39">
+        <v>-0.01552951665728717</v>
+      </c>
+      <c r="G39">
+        <v>0.005628046795399238</v>
+      </c>
+      <c r="H39">
+        <v>-0.03466162177629777</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.003856532291986514</v>
+        <v>0.009263160716095675</v>
       </c>
       <c r="C40">
-        <v>-0.03348413299452681</v>
+        <v>0.04713464954245943</v>
       </c>
       <c r="D40">
-        <v>-0.108816034841435</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.002045799466752353</v>
+      </c>
+      <c r="E40">
+        <v>0.1223613826328692</v>
+      </c>
+      <c r="F40">
+        <v>-0.01016628605580516</v>
+      </c>
+      <c r="G40">
+        <v>0.03846233202645267</v>
+      </c>
+      <c r="H40">
+        <v>0.003797041818696579</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.009007663906239869</v>
+        <v>0.01706700867934949</v>
       </c>
       <c r="C41">
-        <v>-0.02065344994579797</v>
+        <v>0.03732981261871776</v>
       </c>
       <c r="D41">
-        <v>-0.01503812275982391</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.002771590811250428</v>
+      </c>
+      <c r="E41">
+        <v>0.02080117567890013</v>
+      </c>
+      <c r="F41">
+        <v>-0.003546000556303462</v>
+      </c>
+      <c r="G41">
+        <v>-0.001302783556830804</v>
+      </c>
+      <c r="H41">
+        <v>0.007182936252120092</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003139144184060289</v>
+        <v>0.008320344675286893</v>
       </c>
       <c r="C43">
-        <v>-0.01770180792680032</v>
+        <v>0.03162294632052932</v>
       </c>
       <c r="D43">
-        <v>-0.03318636993911596</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.001618143021834076</v>
+      </c>
+      <c r="E43">
+        <v>0.0393026760400453</v>
+      </c>
+      <c r="F43">
+        <v>-0.007806509253830884</v>
+      </c>
+      <c r="G43">
+        <v>-0.008165832818213533</v>
+      </c>
+      <c r="H43">
+        <v>0.008779013337987434</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01403059620982961</v>
+        <v>0.007075920225812207</v>
       </c>
       <c r="C44">
-        <v>-0.05064663240906568</v>
+        <v>0.06805067272515049</v>
       </c>
       <c r="D44">
-        <v>-0.07550009636075911</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.01025460621950427</v>
+      </c>
+      <c r="E44">
+        <v>0.1051861937482968</v>
+      </c>
+      <c r="F44">
+        <v>-0.06145593013141948</v>
+      </c>
+      <c r="G44">
+        <v>-0.004697037691823569</v>
+      </c>
+      <c r="H44">
+        <v>0.01671968398143044</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.005801423372037384</v>
+        <v>-0.002593360187380985</v>
       </c>
       <c r="C46">
-        <v>-0.04115951594710084</v>
+        <v>0.05052370829935679</v>
       </c>
       <c r="D46">
-        <v>-0.06594979066802703</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01873262776339129</v>
+      </c>
+      <c r="E46">
+        <v>0.08250387881283698</v>
+      </c>
+      <c r="F46">
+        <v>-0.04673372091601029</v>
+      </c>
+      <c r="G46">
+        <v>0.01569064541543993</v>
+      </c>
+      <c r="H46">
+        <v>-0.01940015875649657</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.04053109227373292</v>
+        <v>0.02618936200335166</v>
       </c>
       <c r="C47">
-        <v>-0.1324678082933279</v>
+        <v>0.1258969084601498</v>
       </c>
       <c r="D47">
-        <v>-0.04323437181258331</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.003751261761441566</v>
+      </c>
+      <c r="E47">
+        <v>0.004862316361123414</v>
+      </c>
+      <c r="F47">
+        <v>0.01179988314837697</v>
+      </c>
+      <c r="G47">
+        <v>-0.00662668685847007</v>
+      </c>
+      <c r="H47">
+        <v>0.02011747918833412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003733556963908132</v>
+        <v>0.01227317260346546</v>
       </c>
       <c r="C48">
-        <v>-0.03188264256766545</v>
+        <v>0.04515469990788043</v>
       </c>
       <c r="D48">
-        <v>-0.03770812952508894</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01667473611375388</v>
+      </c>
+      <c r="E48">
+        <v>0.06036183706000563</v>
+      </c>
+      <c r="F48">
+        <v>-0.06095136045781693</v>
+      </c>
+      <c r="G48">
+        <v>0.002629253059174663</v>
+      </c>
+      <c r="H48">
+        <v>0.006779364114383103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002704923643075008</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.006227265755432189</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.0004681348410901538</v>
+      </c>
+      <c r="E49">
+        <v>0.003030193383557572</v>
+      </c>
+      <c r="F49">
+        <v>0.01262479741916847</v>
+      </c>
+      <c r="G49">
+        <v>0.0009407694968208809</v>
+      </c>
+      <c r="H49">
+        <v>-0.01556075060706351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.01877004405909843</v>
+        <v>0.01195371265715819</v>
       </c>
       <c r="C50">
-        <v>-0.07211575238632867</v>
+        <v>0.08301408985722376</v>
       </c>
       <c r="D50">
-        <v>-0.05327732354690479</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0021046515833029</v>
+      </c>
+      <c r="E50">
+        <v>0.03887104836088162</v>
+      </c>
+      <c r="F50">
+        <v>-0.00464483248521866</v>
+      </c>
+      <c r="G50">
+        <v>-0.004368418522349581</v>
+      </c>
+      <c r="H50">
+        <v>0.0288835339285806</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004568542653855325</v>
+        <v>-0.005014001341761096</v>
       </c>
       <c r="C51">
-        <v>-0.01302057405861037</v>
+        <v>0.02475944229961546</v>
       </c>
       <c r="D51">
-        <v>-0.05280256234311769</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01721495194650417</v>
+      </c>
+      <c r="E51">
+        <v>0.05841427452020281</v>
+      </c>
+      <c r="F51">
+        <v>-0.05593436741498149</v>
+      </c>
+      <c r="G51">
+        <v>0.01723697165588089</v>
+      </c>
+      <c r="H51">
+        <v>0.003672402196891162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.07466278334697476</v>
+        <v>0.05652297589558914</v>
       </c>
       <c r="C53">
-        <v>-0.1631346774120714</v>
+        <v>0.1681196479371841</v>
       </c>
       <c r="D53">
-        <v>0.01293053783884204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.0189019976471827</v>
+      </c>
+      <c r="E53">
+        <v>-0.06069182471811199</v>
+      </c>
+      <c r="F53">
+        <v>0.009000057991975544</v>
+      </c>
+      <c r="G53">
+        <v>0.01344049290728292</v>
+      </c>
+      <c r="H53">
+        <v>0.03213389129075842</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0005580661126588168</v>
+        <v>0.01002836558846258</v>
       </c>
       <c r="C54">
-        <v>-0.03616271568230997</v>
+        <v>0.05178790694474254</v>
       </c>
       <c r="D54">
-        <v>-0.07471888987272746</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.008599949712069789</v>
+      </c>
+      <c r="E54">
+        <v>0.07768271044707692</v>
+      </c>
+      <c r="F54">
+        <v>-0.02429946991636324</v>
+      </c>
+      <c r="G54">
+        <v>0.002441746145126365</v>
+      </c>
+      <c r="H54">
+        <v>0.01008502590695581</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.05659725581409163</v>
+        <v>0.03669330122662286</v>
       </c>
       <c r="C55">
-        <v>-0.126819700791828</v>
+        <v>0.1248033419971514</v>
       </c>
       <c r="D55">
-        <v>0.006610840992432112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.0405987146408657</v>
+      </c>
+      <c r="E55">
+        <v>-0.04777386003665972</v>
+      </c>
+      <c r="F55">
+        <v>0.03434560255025711</v>
+      </c>
+      <c r="G55">
+        <v>0.02498935880609693</v>
+      </c>
+      <c r="H55">
+        <v>0.03938452140661482</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.08923097407990739</v>
+        <v>0.05619318738756847</v>
       </c>
       <c r="C56">
-        <v>-0.1899102361233774</v>
+        <v>0.1925510614005735</v>
       </c>
       <c r="D56">
-        <v>-0.01350703310149552</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02983930008758873</v>
+      </c>
+      <c r="E56">
+        <v>-0.07410526235403439</v>
+      </c>
+      <c r="F56">
+        <v>0.04896898582778611</v>
+      </c>
+      <c r="G56">
+        <v>0.05524339672821374</v>
+      </c>
+      <c r="H56">
+        <v>0.1089048156517241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01369733426521564</v>
+        <v>0.009071411216782094</v>
       </c>
       <c r="C58">
-        <v>-0.05646541344316505</v>
+        <v>0.1034980964105208</v>
       </c>
       <c r="D58">
-        <v>-0.1643212835414385</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07952757058070958</v>
+      </c>
+      <c r="E58">
+        <v>0.1972067305143048</v>
+      </c>
+      <c r="F58">
+        <v>-0.252304995163225</v>
+      </c>
+      <c r="G58">
+        <v>-0.04235489969474467</v>
+      </c>
+      <c r="H58">
+        <v>0.1497449078076065</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2288940483688915</v>
+        <v>0.2639623826990042</v>
       </c>
       <c r="C59">
-        <v>0.06914205914208976</v>
+        <v>-0.04489262114363379</v>
       </c>
       <c r="D59">
-        <v>-0.04577415021866366</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03425825842041945</v>
+      </c>
+      <c r="E59">
+        <v>0.02178602460506228</v>
+      </c>
+      <c r="F59">
+        <v>-0.0391808576958325</v>
+      </c>
+      <c r="G59">
+        <v>0.03594338540335248</v>
+      </c>
+      <c r="H59">
+        <v>0.00724713333698263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1462461953282397</v>
+        <v>0.1502158861778424</v>
       </c>
       <c r="C60">
-        <v>-0.1407414068320846</v>
+        <v>0.1661472856859294</v>
       </c>
       <c r="D60">
-        <v>-0.125181911705352</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.02066511573721654</v>
+      </c>
+      <c r="E60">
+        <v>0.1254512355603086</v>
+      </c>
+      <c r="F60">
+        <v>0.2037675934116798</v>
+      </c>
+      <c r="G60">
+        <v>0.008012521969684078</v>
+      </c>
+      <c r="H60">
+        <v>-0.2473176112970676</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01115521534936073</v>
+        <v>0.01309099889348362</v>
       </c>
       <c r="C61">
-        <v>-0.06425001290016757</v>
+        <v>0.08583341552729942</v>
       </c>
       <c r="D61">
-        <v>-0.06694358460792846</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.01120776655760349</v>
+      </c>
+      <c r="E61">
+        <v>0.07605792025753218</v>
+      </c>
+      <c r="F61">
+        <v>-0.004985004999209477</v>
+      </c>
+      <c r="G61">
+        <v>0.008692114178038562</v>
+      </c>
+      <c r="H61">
+        <v>-0.01476891389772281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0001725002839833614</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0003670837289187654</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.002025247802180627</v>
+      </c>
+      <c r="E62">
+        <v>-0.0002110858195986843</v>
+      </c>
+      <c r="F62">
+        <v>-0.002872082608500661</v>
+      </c>
+      <c r="G62">
+        <v>0.0007620273710355297</v>
+      </c>
+      <c r="H62">
+        <v>0.001172319109004251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.001271387534243711</v>
+        <v>0.01448660116870333</v>
       </c>
       <c r="C63">
-        <v>-0.0412047636806385</v>
+        <v>0.05809304981620261</v>
       </c>
       <c r="D63">
-        <v>-0.06043343632474038</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0290774157780415</v>
+      </c>
+      <c r="E63">
+        <v>0.08000061108663589</v>
+      </c>
+      <c r="F63">
+        <v>-0.02643442356215049</v>
+      </c>
+      <c r="G63">
+        <v>0.003441810248462303</v>
+      </c>
+      <c r="H63">
+        <v>-0.01645312314177863</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.02734862673559725</v>
+        <v>0.01446177051717566</v>
       </c>
       <c r="C64">
-        <v>-0.1053641901823197</v>
+        <v>0.1040574742434614</v>
       </c>
       <c r="D64">
-        <v>-0.006438067523647193</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02039469434331236</v>
+      </c>
+      <c r="E64">
+        <v>0.0145762415281207</v>
+      </c>
+      <c r="F64">
+        <v>-0.0193191405955492</v>
+      </c>
+      <c r="G64">
+        <v>-0.0332643842584693</v>
+      </c>
+      <c r="H64">
+        <v>-0.02512525021280246</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02303827512649772</v>
+        <v>0.02660685856859943</v>
       </c>
       <c r="C65">
-        <v>-0.03235867275496573</v>
+        <v>0.05732414998085048</v>
       </c>
       <c r="D65">
-        <v>-0.0832699878680813</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01908909383080802</v>
+      </c>
+      <c r="E65">
+        <v>0.118527040431917</v>
+      </c>
+      <c r="F65">
+        <v>-0.01379265281285075</v>
+      </c>
+      <c r="G65">
+        <v>-0.05034504700427929</v>
+      </c>
+      <c r="H65">
+        <v>-0.0688665000591798</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01427859571366319</v>
+        <v>0.008935446959300859</v>
       </c>
       <c r="C66">
-        <v>-0.09133991452967777</v>
+        <v>0.1237996117044447</v>
       </c>
       <c r="D66">
-        <v>-0.1209801948003634</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.00696900889339513</v>
+      </c>
+      <c r="E66">
+        <v>0.124653979179066</v>
+      </c>
+      <c r="F66">
+        <v>-0.02382692771810329</v>
+      </c>
+      <c r="G66">
+        <v>0.008037953001731053</v>
+      </c>
+      <c r="H66">
+        <v>-0.001070400648790618</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01294692469676955</v>
+        <v>0.01524848190793136</v>
       </c>
       <c r="C67">
-        <v>-0.02480788697296776</v>
+        <v>0.04133621601801668</v>
       </c>
       <c r="D67">
-        <v>-0.03628562218439411</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.003278091299883298</v>
+      </c>
+      <c r="E67">
+        <v>0.04908223878729608</v>
+      </c>
+      <c r="F67">
+        <v>0.02075870453804865</v>
+      </c>
+      <c r="G67">
+        <v>-0.01341317807693167</v>
+      </c>
+      <c r="H67">
+        <v>0.03169142765262552</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.242146634161716</v>
+        <v>0.281285694422711</v>
       </c>
       <c r="C68">
-        <v>0.08787914147628963</v>
+        <v>-0.05888474220656942</v>
       </c>
       <c r="D68">
-        <v>-0.0252814226578962</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02132585971685914</v>
+      </c>
+      <c r="E68">
+        <v>0.03995102361615725</v>
+      </c>
+      <c r="F68">
+        <v>-0.05512212343829558</v>
+      </c>
+      <c r="G68">
+        <v>0.0003984471605832586</v>
+      </c>
+      <c r="H68">
+        <v>0.03157619504351169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.02788346324549935</v>
+        <v>0.01122093757335047</v>
       </c>
       <c r="C69">
-        <v>-0.1321352970781372</v>
+        <v>0.1136036326303318</v>
       </c>
       <c r="D69">
-        <v>-0.05345665929349579</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.00851772668796473</v>
+      </c>
+      <c r="E69">
+        <v>0.01178288997318091</v>
+      </c>
+      <c r="F69">
+        <v>0.02011564351673315</v>
+      </c>
+      <c r="G69">
+        <v>0.007539092791390538</v>
+      </c>
+      <c r="H69">
+        <v>0.01539811141542245</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2630206064027913</v>
+        <v>0.2723177224481944</v>
       </c>
       <c r="C71">
-        <v>0.1024509164745109</v>
+        <v>-0.07420076421161559</v>
       </c>
       <c r="D71">
-        <v>-0.01967827510354941</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.009309119763829589</v>
+      </c>
+      <c r="E71">
+        <v>0.01238748087579988</v>
+      </c>
+      <c r="F71">
+        <v>-0.02244256695904388</v>
+      </c>
+      <c r="G71">
+        <v>-0.002042271837024256</v>
+      </c>
+      <c r="H71">
+        <v>0.05251856643820546</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.07970238309605707</v>
+        <v>0.06254935054527716</v>
       </c>
       <c r="C72">
-        <v>-0.1126959488951996</v>
+        <v>0.1331711930582834</v>
       </c>
       <c r="D72">
-        <v>-0.09327908316769708</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01958399582249817</v>
+      </c>
+      <c r="E72">
+        <v>0.07364010262105242</v>
+      </c>
+      <c r="F72">
+        <v>0.03121339175845353</v>
+      </c>
+      <c r="G72">
+        <v>-0.02019196871063447</v>
+      </c>
+      <c r="H72">
+        <v>-0.05068203659510067</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1491854248936748</v>
+        <v>0.154982120383278</v>
       </c>
       <c r="C73">
-        <v>-0.1233981088043141</v>
+        <v>0.1785439000085969</v>
       </c>
       <c r="D73">
-        <v>-0.1914088456579771</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.08562920256971533</v>
+      </c>
+      <c r="E73">
+        <v>0.2399362936636327</v>
+      </c>
+      <c r="F73">
+        <v>0.3370077450728666</v>
+      </c>
+      <c r="G73">
+        <v>-0.05043117063269553</v>
+      </c>
+      <c r="H73">
+        <v>-0.3550304895848677</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.06704505729030166</v>
+        <v>0.04601591647210934</v>
       </c>
       <c r="C74">
-        <v>-0.140161380234097</v>
+        <v>0.1380961517166563</v>
       </c>
       <c r="D74">
-        <v>0.06161312730047078</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03172642329519163</v>
+      </c>
+      <c r="E74">
+        <v>-0.08057574672401434</v>
+      </c>
+      <c r="F74">
+        <v>0.008335236530036207</v>
+      </c>
+      <c r="G74">
+        <v>0.004615570389603751</v>
+      </c>
+      <c r="H74">
+        <v>0.03102030176849081</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.160163222150761</v>
+        <v>0.0917823392904475</v>
       </c>
       <c r="C75">
-        <v>-0.2526650396478925</v>
+        <v>0.2510604597380551</v>
       </c>
       <c r="D75">
-        <v>0.02995499432595836</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.01973886580365991</v>
+      </c>
+      <c r="E75">
+        <v>-0.1691762762184829</v>
+      </c>
+      <c r="F75">
+        <v>0.1409764275278967</v>
+      </c>
+      <c r="G75">
+        <v>0.02123598905590778</v>
+      </c>
+      <c r="H75">
+        <v>0.2261363977476247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.088405532518433</v>
+        <v>0.05422933595235752</v>
       </c>
       <c r="C76">
-        <v>-0.1754441601214177</v>
+        <v>0.1778266949121549</v>
       </c>
       <c r="D76">
-        <v>-0.001602293325420561</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02931838181552545</v>
+      </c>
+      <c r="E76">
+        <v>-0.07176353978452593</v>
+      </c>
+      <c r="F76">
+        <v>0.07123286716706902</v>
+      </c>
+      <c r="G76">
+        <v>0.04358665728868542</v>
+      </c>
+      <c r="H76">
+        <v>0.07139056783117695</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.002596528472086205</v>
+        <v>0.003142053726874771</v>
       </c>
       <c r="C77">
-        <v>-0.1138325438026607</v>
+        <v>0.149067899982548</v>
       </c>
       <c r="D77">
-        <v>-0.1775387462813427</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.9381329820695194</v>
+      </c>
+      <c r="E77">
+        <v>-0.1413884913108349</v>
+      </c>
+      <c r="F77">
+        <v>0.08657954198970629</v>
+      </c>
+      <c r="G77">
+        <v>-0.1066342114441274</v>
+      </c>
+      <c r="H77">
+        <v>-0.1255232721416694</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0231046165746859</v>
+        <v>0.02254998298304576</v>
       </c>
       <c r="C78">
-        <v>-0.1055614022017411</v>
+        <v>0.1124065623129612</v>
       </c>
       <c r="D78">
-        <v>-0.125199246545756</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0239136805894487</v>
+      </c>
+      <c r="E78">
+        <v>0.09482521413503137</v>
+      </c>
+      <c r="F78">
+        <v>-0.06566780908638366</v>
+      </c>
+      <c r="G78">
+        <v>0.06801921074585976</v>
+      </c>
+      <c r="H78">
+        <v>0.05689197088008225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.07489130201758938</v>
+        <v>0.05275155525314727</v>
       </c>
       <c r="C79">
-        <v>-0.2965423601719395</v>
+        <v>0.2493496423502114</v>
       </c>
       <c r="D79">
-        <v>0.7027442272506393</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.1486199925316514</v>
+      </c>
+      <c r="E79">
+        <v>-0.4371539905030029</v>
+      </c>
+      <c r="F79">
+        <v>-0.5613837308577593</v>
+      </c>
+      <c r="G79">
+        <v>-0.3295738760025856</v>
+      </c>
+      <c r="H79">
+        <v>-0.4738622553871705</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.00129933336377325</v>
+        <v>0.008694271610189368</v>
       </c>
       <c r="C80">
-        <v>-0.04861845218686241</v>
+        <v>0.04951113486975329</v>
       </c>
       <c r="D80">
-        <v>-0.0280542940188782</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03579966023831463</v>
+      </c>
+      <c r="E80">
+        <v>0.05122005570401094</v>
+      </c>
+      <c r="F80">
+        <v>0.01261367940703018</v>
+      </c>
+      <c r="G80">
+        <v>0.05883198443210765</v>
+      </c>
+      <c r="H80">
+        <v>-0.03768156962376669</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.06167511531128174</v>
+        <v>0.02700062703651804</v>
       </c>
       <c r="C81">
-        <v>-0.1627516358861766</v>
+        <v>0.1558361073027872</v>
       </c>
       <c r="D81">
-        <v>0.06994667897389038</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02881873766319962</v>
+      </c>
+      <c r="E81">
+        <v>-0.1116455315633377</v>
+      </c>
+      <c r="F81">
+        <v>-0.002914067438524964</v>
+      </c>
+      <c r="G81">
+        <v>0.04736749635307002</v>
+      </c>
+      <c r="H81">
+        <v>0.08189333675855512</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1197331885788486</v>
+        <v>0.0668984883005561</v>
       </c>
       <c r="C82">
-        <v>-0.2640182771592853</v>
+        <v>0.2300825929025632</v>
       </c>
       <c r="D82">
-        <v>0.04005845017264782</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03669967746993907</v>
+      </c>
+      <c r="E82">
+        <v>-0.1621206507018056</v>
+      </c>
+      <c r="F82">
+        <v>0.08922744490622671</v>
+      </c>
+      <c r="G82">
+        <v>0.1026941137776452</v>
+      </c>
+      <c r="H82">
+        <v>0.1446690455297917</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02045358855439959</v>
+        <v>-0.007025973426322728</v>
       </c>
       <c r="C83">
-        <v>-0.05029159980486465</v>
+        <v>0.01733837851126235</v>
       </c>
       <c r="D83">
-        <v>0.002997137693621127</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.08701703530980349</v>
+      </c>
+      <c r="E83">
+        <v>-0.08438107053603917</v>
+      </c>
+      <c r="F83">
+        <v>-0.2274853068044303</v>
+      </c>
+      <c r="G83">
+        <v>0.8700562632038761</v>
+      </c>
+      <c r="H83">
+        <v>-0.2436805773796658</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001536308663491853</v>
+        <v>-0.002957969449479539</v>
       </c>
       <c r="C84">
-        <v>-0.007465588504062644</v>
+        <v>0.02396738934563223</v>
       </c>
       <c r="D84">
-        <v>-0.01577308735901007</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01338693247628248</v>
+      </c>
+      <c r="E84">
+        <v>0.04525004564841871</v>
+      </c>
+      <c r="F84">
+        <v>-0.06226953115955569</v>
+      </c>
+      <c r="G84">
+        <v>-0.03221954488986416</v>
+      </c>
+      <c r="H84">
+        <v>0.05587383151813455</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.0854527265292741</v>
+        <v>0.04974759581619425</v>
       </c>
       <c r="C85">
-        <v>-0.1790661184440275</v>
+        <v>0.1727625385497834</v>
       </c>
       <c r="D85">
-        <v>0.08974814952303047</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08716533298306295</v>
+      </c>
+      <c r="E85">
+        <v>-0.1225345403765156</v>
+      </c>
+      <c r="F85">
+        <v>0.005812095839789755</v>
+      </c>
+      <c r="G85">
+        <v>0.0099727893601009</v>
+      </c>
+      <c r="H85">
+        <v>0.05348840990479171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02912091820094229</v>
+        <v>0.01688122402266443</v>
       </c>
       <c r="C86">
-        <v>-0.02612355736922756</v>
+        <v>0.05477140835238135</v>
       </c>
       <c r="D86">
-        <v>-0.07164207766698893</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04319949649086144</v>
+      </c>
+      <c r="E86">
+        <v>0.05747770673974064</v>
+      </c>
+      <c r="F86">
+        <v>-0.07730397886567177</v>
+      </c>
+      <c r="G86">
+        <v>-0.0280021303416085</v>
+      </c>
+      <c r="H86">
+        <v>0.05927550986029236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.01972289205138508</v>
+        <v>0.01179023695822766</v>
       </c>
       <c r="C87">
-        <v>-0.06172082015551952</v>
+        <v>0.08029165914664382</v>
       </c>
       <c r="D87">
-        <v>-0.1115041812025539</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.03101708741013582</v>
+      </c>
+      <c r="E87">
+        <v>0.1074914565558418</v>
+      </c>
+      <c r="F87">
+        <v>-0.0950105421894166</v>
+      </c>
+      <c r="G87">
+        <v>0.0039203432351936</v>
+      </c>
+      <c r="H87">
+        <v>0.04819364697210261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.03414925958875697</v>
+        <v>0.03362605322085947</v>
       </c>
       <c r="C88">
-        <v>-0.07258075967688075</v>
+        <v>0.0797084406189377</v>
       </c>
       <c r="D88">
-        <v>0.0009073432352153097</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01780645897086972</v>
+      </c>
+      <c r="E88">
+        <v>0.01134987046701079</v>
+      </c>
+      <c r="F88">
+        <v>0.003563455957235393</v>
+      </c>
+      <c r="G88">
+        <v>-0.001567695218816838</v>
+      </c>
+      <c r="H88">
+        <v>0.004395329699165199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.4016671868860576</v>
+        <v>0.4014098457735168</v>
       </c>
       <c r="C89">
-        <v>0.2011848393398872</v>
+        <v>-0.1494771943256796</v>
       </c>
       <c r="D89">
-        <v>8.737756367877526e-05</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.04288572456916987</v>
+      </c>
+      <c r="E89">
+        <v>0.01972876803698857</v>
+      </c>
+      <c r="F89">
+        <v>-0.1172662846600575</v>
+      </c>
+      <c r="G89">
+        <v>0.09064834958276595</v>
+      </c>
+      <c r="H89">
+        <v>-0.03468403105557316</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.3174419227781177</v>
+        <v>0.323995703206672</v>
       </c>
       <c r="C90">
-        <v>0.1391226498981671</v>
+        <v>-0.09171198173878654</v>
       </c>
       <c r="D90">
-        <v>-0.06312695455858466</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02114394143335507</v>
+      </c>
+      <c r="E90">
+        <v>0.03915197939788022</v>
+      </c>
+      <c r="F90">
+        <v>-0.003155733861878411</v>
+      </c>
+      <c r="G90">
+        <v>0.01669885751175159</v>
+      </c>
+      <c r="H90">
+        <v>0.04657410493689534</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.09625895207442602</v>
+        <v>0.06256338445291158</v>
       </c>
       <c r="C91">
-        <v>-0.2198699193307284</v>
+        <v>0.1916436994992071</v>
       </c>
       <c r="D91">
-        <v>0.1005882384786969</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02265155435040341</v>
+      </c>
+      <c r="E91">
+        <v>-0.1594618603768961</v>
+      </c>
+      <c r="F91">
+        <v>9.661375206404922e-05</v>
+      </c>
+      <c r="G91">
+        <v>0.03151619634675435</v>
+      </c>
+      <c r="H91">
+        <v>0.04155789106079403</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.3141942814047718</v>
+        <v>0.3415100457665949</v>
       </c>
       <c r="C92">
-        <v>0.1770213909481425</v>
+        <v>-0.1370744844875489</v>
       </c>
       <c r="D92">
-        <v>0.05853673589491329</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.05413756618678647</v>
+      </c>
+      <c r="E92">
+        <v>-0.03726307177583554</v>
+      </c>
+      <c r="F92">
+        <v>-0.07311232155419908</v>
+      </c>
+      <c r="G92">
+        <v>-0.07704831841283381</v>
+      </c>
+      <c r="H92">
+        <v>0.07583729600124989</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.3372085661477146</v>
+        <v>0.3317366297729586</v>
       </c>
       <c r="C93">
-        <v>0.1522979975875549</v>
+        <v>-0.1128692688205352</v>
       </c>
       <c r="D93">
-        <v>0.02463248579716585</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02055011047341254</v>
+      </c>
+      <c r="E93">
+        <v>-0.01907551702091665</v>
+      </c>
+      <c r="F93">
+        <v>-0.0006895794520093869</v>
+      </c>
+      <c r="G93">
+        <v>-0.04769272146150256</v>
+      </c>
+      <c r="H93">
+        <v>0.009584612124605924</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1652441846770005</v>
+        <v>0.1113302045775072</v>
       </c>
       <c r="C94">
-        <v>-0.2755056854158804</v>
+        <v>0.262715749947625</v>
       </c>
       <c r="D94">
-        <v>0.09459570847589416</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.07881417554282409</v>
+      </c>
+      <c r="E94">
+        <v>-0.2796413383802765</v>
+      </c>
+      <c r="F94">
+        <v>0.1719631085874478</v>
+      </c>
+      <c r="G94">
+        <v>0.0999338389432817</v>
+      </c>
+      <c r="H94">
+        <v>0.3042789987568193</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.0008750206380524667</v>
+        <v>0.01580244479569363</v>
       </c>
       <c r="C95">
-        <v>-0.0689671660953529</v>
+        <v>0.09763892334884106</v>
       </c>
       <c r="D95">
-        <v>-0.07911798760731363</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1166953531815274</v>
+      </c>
+      <c r="E95">
+        <v>0.04496913495852869</v>
+      </c>
+      <c r="F95">
+        <v>0.06492314640662622</v>
+      </c>
+      <c r="G95">
+        <v>0.01009704903075257</v>
+      </c>
+      <c r="H95">
+        <v>-0.03005587114036272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002147953146127389</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001386054010305699</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.004295872659257611</v>
+      </c>
+      <c r="E97">
+        <v>0.003657574884210144</v>
+      </c>
+      <c r="F97">
+        <v>0.0007406873299553638</v>
+      </c>
+      <c r="G97">
+        <v>-0.004885739961372439</v>
+      </c>
+      <c r="H97">
+        <v>0.003662719144892909</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1209225062178164</v>
+        <v>0.1319888635221355</v>
       </c>
       <c r="C98">
-        <v>-0.1158523887156118</v>
+        <v>0.1573991855856088</v>
       </c>
       <c r="D98">
-        <v>-0.1433825579463992</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.06888434714138503</v>
+      </c>
+      <c r="E98">
+        <v>0.1700734471742247</v>
+      </c>
+      <c r="F98">
+        <v>0.2708833582065526</v>
+      </c>
+      <c r="G98">
+        <v>-0.05038725783646825</v>
+      </c>
+      <c r="H98">
+        <v>-0.2954823966091606</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00101590913850328</v>
+        <v>0.003012541719439696</v>
       </c>
       <c r="C101">
-        <v>-0.02824567259940034</v>
+        <v>0.05140710898030795</v>
       </c>
       <c r="D101">
-        <v>-0.06234418891837368</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01504391516236815</v>
+      </c>
+      <c r="E101">
+        <v>0.1146300477548816</v>
+      </c>
+      <c r="F101">
+        <v>-0.0560346511635183</v>
+      </c>
+      <c r="G101">
+        <v>0.03758771842610226</v>
+      </c>
+      <c r="H101">
+        <v>-0.0614834889481053</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.04827797291730391</v>
+        <v>0.01622856727177606</v>
       </c>
       <c r="C102">
-        <v>-0.1488293920595997</v>
+        <v>0.1077113915483903</v>
       </c>
       <c r="D102">
-        <v>-0.004831892146432703</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.01100163668169376</v>
+      </c>
+      <c r="E102">
+        <v>-0.07884993474720356</v>
+      </c>
+      <c r="F102">
+        <v>0.07330417790860064</v>
+      </c>
+      <c r="G102">
+        <v>0.04628527909177928</v>
+      </c>
+      <c r="H102">
+        <v>0.04930396643699366</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
